--- a/kids_and_profiles.xlsx
+++ b/kids_and_profiles.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\akimov\_Programming\Python\kids-to-profiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Козлов Г.А\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Результат" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$I$63</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
   <si>
     <t>Фамилия, имя</t>
   </si>
@@ -230,6 +233,15 @@
   </si>
   <si>
     <t>Юрийчук Ева</t>
+  </si>
+  <si>
+    <t>Л+Б+Г+И</t>
+  </si>
+  <si>
+    <t>Х+Л+Г+И</t>
+  </si>
+  <si>
+    <t>Х+Л+О+И</t>
   </si>
 </sst>
 </file>
@@ -271,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -279,11 +291,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -298,11 +325,52 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -516,27 +584,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <f t="shared" ref="B1:I1" si="0">SUM(B3:B63)</f>
@@ -560,7 +631,7 @@
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" si="0"/>
@@ -570,1311 +641,2076 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="2">
+        <f>COUNTIF(K3:K63,"&lt;&gt;1")</f>
+        <v>13</v>
+      </c>
+      <c r="L1" s="2">
+        <f>COUNTIF(L3:L63,"&lt;&gt;1")</f>
+        <v>16</v>
+      </c>
+      <c r="M1" s="2">
+        <f>COUNTIF(M3:M63,"&lt;&gt;1")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="K2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5"/>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J63" si="1">SUM(B3:I3)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="K3">
+        <f>F3+H3+D3+G3</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>C3+F3+G3+H3</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>C3+F3+E3+H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="K4">
+        <f t="shared" ref="K4:K63" si="2">F4+H4+D4+G4</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L63" si="3">C4+F4+G4+H4</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M63" si="4">C4+F4+E4+H4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
         <v>1</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5"/>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11"/>
       <c r="J13" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11"/>
       <c r="J20" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11"/>
       <c r="J21" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
         <v>1</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5"/>
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11"/>
       <c r="J24" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="4">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10">
         <v>1</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10">
         <v>1</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="4">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10">
         <v>1</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="4">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10">
         <v>1</v>
       </c>
       <c r="J35" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="4">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10">
         <v>1</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="4">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="4">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5"/>
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
+      <c r="I37" s="11"/>
       <c r="J37" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="4">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="10">
         <v>1</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
       <c r="J40" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10">
+        <v>1</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="10">
+        <v>1</v>
+      </c>
+      <c r="I41" s="11"/>
       <c r="J41" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="4">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="10">
         <v>1</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="4">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="10">
         <v>1</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="5"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="4">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="10">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="4">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10">
+        <v>1</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="10">
         <v>1</v>
       </c>
       <c r="J48" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="4">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="10">
         <v>1</v>
       </c>
       <c r="J49" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="4">
-        <v>1</v>
-      </c>
-      <c r="I50" s="5"/>
+      <c r="B50" s="10">
+        <v>1</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+      <c r="I50" s="11"/>
       <c r="J50" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10">
+        <v>1</v>
+      </c>
+      <c r="F51" s="10">
+        <v>1</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="4">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11">
+        <v>1</v>
+      </c>
+      <c r="I52" s="10">
         <v>1</v>
       </c>
       <c r="J52" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="4">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="10">
         <v>1</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="4">
-        <v>1</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="10">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
       <c r="J54" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="4">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="4">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="10">
         <v>1</v>
       </c>
       <c r="J55" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="4">
-        <v>1</v>
-      </c>
-      <c r="I56" s="5"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="10">
+        <v>1</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="10">
+        <v>1</v>
+      </c>
+      <c r="I56" s="11"/>
       <c r="J56" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="4">
-        <v>1</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="B57" s="10">
+        <v>1</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="10">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
       <c r="J57" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="4">
-        <v>1</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="10">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
       <c r="J58" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="4">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
       <c r="J59" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="4">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="B60" s="10">
+        <v>1</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="10">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
       <c r="J60" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="4">
-        <v>1</v>
-      </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="10">
+        <v>1</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="10">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
       <c r="J61" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="4">
-        <v>1</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="5"/>
+      <c r="B62" s="10">
+        <v>1</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="10">
+        <v>1</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="4">
-        <v>1</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="4">
+      <c r="B63" s="10">
+        <v>1</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="10">
         <v>1</v>
       </c>
       <c r="J63" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A2:I63"/>
+  <conditionalFormatting sqref="K3:S63">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
